--- a/Sprint#4/Pruebas Individuales/Log pruebas individuales RF-33.xlsx
+++ b/Sprint#4/Pruebas Individuales/Log pruebas individuales RF-33.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oscar\Documents\GitHub\SIGAB\SIGAB\Sprint#4\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B593F8-B7B0-4F3D-8FC2-07C407C7F7C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="RF 22" sheetId="1" r:id="rId1"/>
-    <sheet name="Firmas" sheetId="2" r:id="rId2"/>
+    <sheet name="RF 33" sheetId="1" r:id="rId1"/>
+    <sheet name="Hojade pruebas" sheetId="3" r:id="rId2"/>
+    <sheet name="firmas" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,17 +26,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -44,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>Observación</t>
   </si>
@@ -99,26 +108,321 @@
     <t>X</t>
   </si>
   <si>
-    <t>No aplica</t>
-  </si>
-  <si>
     <t>Visualizar documentos de evidencia de una actividad</t>
   </si>
   <si>
-    <t>Las evidencias se observan mediante una opción en el detalle de cada actividad.</t>
-  </si>
-  <si>
-    <t>En caso de que no se pueda mostrar una previsualización se puede descargar el documento.</t>
-  </si>
-  <si>
-    <t>En caso de ser un vídeo de Youtube se mostrará el link de reedireción.</t>
+    <t xml:space="preserve">Para este módulo es necesario que se muestre la información en forma de un gráfico solicitada en forma de un gráfico. 5 Criterios de aceptación. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Debe existir un gráfico de barras que se genere según el año actual, en el que se muestre en el eje “X” el nombre de los propósitos que se encuentren en el sistema, y en el eje “Y” la cantidad de actividades. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir un gráfico de tipo anillo que se genere según el año actual, y que muestre por medio de porcentajes la cantidad de actividades según su estado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En caso de que el gráfico cuente con más de un dato se deben de mostrar cada uno de los datos con colores distintos en el gráfico.  </t>
+  </si>
+  <si>
+    <t>Se debe poder generar un reporte del resultado de la consulta. Este reporte debe generarse según el formato que se muestra en el anexo 1.</t>
+  </si>
+  <si>
+    <t>Debe ser posible generar un gráfico que muestra la cantidad de actividades en un rango de meses, dicho gráfico debe generarse a partir de una búsqueda según los siguientes filtros:
+ Naturaleza de actividad (Interna o de promoción) 
+Tipo de actividad según su naturaleza 
+Estado de la actividad 
+Mes de inicio 
+Mes final 
+Tipo de gráfico (barras, líneas, área, anillo, circular)</t>
+  </si>
+  <si>
+    <t>Se encuentran en la hoja de pruebas</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Proposito de la actividad (capacitación, actualización, inducción. Involucramiento del personal, otro (s))</t>
+  </si>
+  <si>
+    <t>Tipo de actividad</t>
+  </si>
+  <si>
+    <t>Lugar donde se llevó a cabo la actividad</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Certificación de la actividad (participación o aprovechamiento)</t>
+  </si>
+  <si>
+    <t>Tema de la actividad</t>
+  </si>
+  <si>
+    <t>Responsable de coordinar actividad</t>
+  </si>
+  <si>
+    <t>Responsable de la actividad</t>
+  </si>
+  <si>
+    <t>Estado de la actividad (En ejecución, En progreso, Ejecutada)</t>
+  </si>
+  <si>
+    <t>Objetivos de la actividad</t>
+  </si>
+  <si>
+    <t>Agenda (Temas a tratar)</t>
+  </si>
+  <si>
+    <t>Ámbito (internacional o nacional)</t>
+  </si>
+  <si>
+    <t>Descripción de la actividad</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>Público dirigido (estudiantes regulares, graduados, docentes, administrativos)</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Actividad Co-Curricular</t>
+  </si>
+  <si>
+    <t>Sesión sincrónica mediante Zoom</t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <r>
+      <t>No aplica</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Estudio de la realidad nacional</t>
+  </si>
+  <si>
+    <t>Kattia Bermúdez León</t>
+  </si>
+  <si>
+    <t>Ejecutada</t>
+  </si>
+  <si>
+    <t>Concientizar a los estudiantes para que reflexionen acerca de temas como el aborto terapéutico, niños, alcoholismo y discriminación social y cultural</t>
+  </si>
+  <si>
+    <t>Saludo y bienvenida; Instrucciones para participar de la actividad: Entrega de protocolo para participar en foro en el aula virtual; Espacio para preguntas y comentarios; Cierre</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Los estudiantes abordaron temas tales como: aborto terapéutico, niñez, las cárceles, el alcoholismo discriminación social y cultural. A partir de estos temas se logra una toma de conciencia entre la comunidad estudiantil y la necesidad de contribuir desde la bibliotecología. Participación de 25 estudiantes</t>
+  </si>
+  <si>
+    <t>Computadora; conexión a Internet; plataforma Zoom; Lecturas; Aula virtual institucional</t>
+  </si>
+  <si>
+    <t>Estudiantes regulares del curso Introducción a la Bibliotecología y Gestión de la Información (I ciclo 2019)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No aplica </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Inducción</t>
+  </si>
+  <si>
+    <t>Facultad de Filosofía y Letras</t>
+  </si>
+  <si>
+    <t>Proceso de inducción a estudiantes de primer ingreso</t>
+  </si>
+  <si>
+    <t>Juan Pablo Corella Parajales</t>
+  </si>
+  <si>
+    <t>Estudiantes de primer ingreso</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>07 y 09 de setiembre de 2020</t>
+  </si>
+  <si>
+    <t>6 horas</t>
+  </si>
+  <si>
+    <t>Curso/taller sobre Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Karla Rodríguez Salas</t>
+  </si>
+  <si>
+    <t>Magally Campos Méndez</t>
+  </si>
+  <si>
+    <t>Tareas; Chat; Llamadas; Equipos</t>
+  </si>
+  <si>
+    <t>Capacitación al personal docente de la EBDI. Participación de 11 docentes.</t>
+  </si>
+  <si>
+    <t>Invitación; instructivo; computadora; plataforma Microsoft Teams; conexión a internet</t>
+  </si>
+  <si>
+    <t>Personal docente de la EBDI</t>
+  </si>
+  <si>
+    <t>19, 25 y 26 de febrero de 2021</t>
+  </si>
+  <si>
+    <t>10 horas</t>
+  </si>
+  <si>
+    <t>Taller: uso de herramientas tecnológicas para la docencia</t>
+  </si>
+  <si>
+    <t>Magally Campos Méndez
+Freddy Oviedo</t>
+  </si>
+  <si>
+    <t>Herramientas del aula virtual (Asistencia, Grupos, Wiki, Glosario, lección, taller, cuestionario, insertar audio y url)
+Google calendar y Sharepoint</t>
+  </si>
+  <si>
+    <t>02 de setiembre</t>
+  </si>
+  <si>
+    <t>3 horas</t>
+  </si>
+  <si>
+    <t>Curso Classroom para docentes</t>
+  </si>
+  <si>
+    <t>Contribuir al formatalecimiento de las competencias académicas con respecto al manejo de herramientas para mediar pedagogicamente con las TIC</t>
+  </si>
+  <si>
+    <t>Google Classroom</t>
+  </si>
+  <si>
+    <t>Capacitación al personal docente de la EBDI. Participación de 10 docentes.</t>
+  </si>
+  <si>
+    <t>Invitación; instructivo; computadora; plataforma Zoom; conexión a internet</t>
+  </si>
+  <si>
+    <t>Curso/taller</t>
+  </si>
+  <si>
+    <t>Aula tecnológiga (Facultad de Filosofía y Letras)</t>
+  </si>
+  <si>
+    <t>30 de setiembre y 01 de octubre</t>
+  </si>
+  <si>
+    <t>16 horas</t>
+  </si>
+  <si>
+    <t>Escritura académica con énfasis en artículos científicos</t>
+  </si>
+  <si>
+    <t>Johann Pirela Morillo</t>
+  </si>
+  <si>
+    <t>Módulo 1: Aspectos introducctorios
+Módulo 2: Sistemas de citación y elementos para evaluar artículos científicos</t>
+  </si>
+  <si>
+    <t>Capacitación de dos días al personal docente de la EBDI. Participación de 11 docentes.</t>
+  </si>
+  <si>
+    <t>Invitación; Presentaciones PowerPoint; computadora; conexión a internet; proyección multimedia</t>
+  </si>
+  <si>
+    <t>Charla</t>
+  </si>
+  <si>
+    <t>17 de abril de 2018</t>
+  </si>
+  <si>
+    <t>Capacitación sobre las bases de datos del SIDUNA, el OPAC, libros y revistas electrónicos y el repositorio institucional</t>
+  </si>
+  <si>
+    <t>Pedro Bustabad</t>
+  </si>
+  <si>
+    <t>Jorlenny Valerio</t>
+  </si>
+  <si>
+    <t>Cumplir con la directriz institucional para el uso de los recursos del SIDUNA y fortalecer las habilidades del estudiantado.</t>
+  </si>
+  <si>
+    <t>Curso/taller a estudiantes regulares, egresados y graduados de la EBDI. Participación 25 estudiantes</t>
+  </si>
+  <si>
+    <t>Estudiantes regulares, egresados y graduados</t>
+  </si>
+  <si>
+    <t>16 y 18 de abril de 2018</t>
+  </si>
+  <si>
+    <t>Charla sobre el Centro Regional de Información sobre Desastres para América Latina y el Caribe (CRID)</t>
+  </si>
+  <si>
+    <t>Giannina Ocampo Bermúdez
+Lucrecia Barboza Jiménez</t>
+  </si>
+  <si>
+    <t>Centro Regional de Información sobre Desastres para América Latina y el Caribe (CRID)</t>
+  </si>
+  <si>
+    <t>Fortalecer las habilidades del estudiantado.</t>
+  </si>
+  <si>
+    <t>Estudiantes regulares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +490,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +556,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -227,12 +571,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -281,10 +685,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BC52AFE1-0A12-440D-95ED-3DFD3AD6CBC2}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,20 +738,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>82008</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3180F6CE-C01B-46D5-A8D8-0C7444A26D2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="https://lh5.googleusercontent.com/60AY_wOF5_n0G3OY5SyoU38ClJAzthUof8AAK3QZqL1FThFtUxu7PEr9LrGqo4fgw1o2tBnYqM4YznLNipd4aKzkyEREcHH5rc3PrFgbVf4WuxgCQmDtUTkkBbi1Og"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -343,7 +766,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="15182850" cy="26022300"/>
+          <a:ext cx="16084008" cy="4981575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,11 +1098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -741,10 +1164,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -767,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>44279</v>
+        <v>44314</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -808,25 +1231,25 @@
     </row>
     <row r="11" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>16</v>
@@ -834,56 +1257,87 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -901,10 +1355,517 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EC084F-F78E-4A98-B67C-45E7481369F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" customWidth="1"/>
+    <col min="11" max="11" width="39.28515625" customWidth="1"/>
+    <col min="12" max="12" width="38.5703125" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="15" max="15" width="46.140625" customWidth="1"/>
+    <col min="16" max="16" width="33.28515625" customWidth="1"/>
+    <col min="17" max="17" width="36.42578125" customWidth="1"/>
+    <col min="18" max="18" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="25">
+        <v>43605</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="25">
+        <v>43515</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
